--- a/Deliverables/TimeLog.xlsx
+++ b/Deliverables/TimeLog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>Making user stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quinn </t>
+  </si>
+  <si>
+    <t>Adding sword model to Ghoul and starting transform scripts</t>
   </si>
 </sst>
 </file>
@@ -637,6 +643,20 @@
         <v>41</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <v>42641.0</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Deliverables/TimeLog.xlsx
+++ b/Deliverables/TimeLog.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Greg the Ghoul\Deliverables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -143,29 +154,35 @@
   </si>
   <si>
     <t>Adding sword model to Ghoul and starting transform scripts</t>
+  </si>
+  <si>
+    <t>Getting sword to follow model animations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -174,45 +191,372 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="42.14"/>
-    <col customWidth="1" min="4" max="4" width="83.43"/>
+    <col min="3" max="3" width="42.140625" customWidth="1"/>
+    <col min="4" max="4" width="83.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -226,17 +570,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>42611.0</v>
+        <v>42611</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -245,12 +589,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>42613.0</v>
+        <v>42613</v>
       </c>
       <c r="B4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -259,12 +603,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>42615.0</v>
+        <v>42615</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -273,12 +617,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>42616.0</v>
+        <v>42616</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -287,17 +631,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>42618.0</v>
+        <v>42618</v>
       </c>
       <c r="B8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -306,12 +650,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>42620.0</v>
+        <v>42620</v>
       </c>
       <c r="B9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -320,12 +664,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -334,12 +678,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>42620.0</v>
+        <v>42620</v>
       </c>
       <c r="B11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
@@ -348,12 +692,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>42620.0</v>
+        <v>42620</v>
       </c>
       <c r="B12" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -362,12 +706,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>42618.0</v>
+        <v>42618</v>
       </c>
       <c r="B13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
@@ -376,12 +720,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>42620.0</v>
+        <v>42620</v>
       </c>
       <c r="B14" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -390,12 +734,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>42622.0</v>
+        <v>42622</v>
       </c>
       <c r="B15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -404,12 +748,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>42624.0</v>
+        <v>42624</v>
       </c>
       <c r="B16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -418,12 +762,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>42624.0</v>
+        <v>42624</v>
       </c>
       <c r="B17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -432,14 +776,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>42625.0</v>
+        <v>42625</v>
       </c>
       <c r="B19" s="1">
         <v>0.25</v>
@@ -451,12 +795,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>42625.0</v>
+        <v>42625</v>
       </c>
       <c r="B20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
@@ -465,12 +809,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>42627.0</v>
+        <v>42627</v>
       </c>
       <c r="B21" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>13</v>
@@ -479,12 +823,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>42627.0</v>
+        <v>42627</v>
       </c>
       <c r="B22" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
@@ -493,12 +837,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>42627.0</v>
+        <v>42627</v>
       </c>
       <c r="B23" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>13</v>
@@ -507,12 +851,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>42631.0</v>
+        <v>42631</v>
       </c>
       <c r="B24" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
@@ -521,17 +865,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>42632.0</v>
+        <v>42632</v>
       </c>
       <c r="B26" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -540,12 +884,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>42634.0</v>
+        <v>42634</v>
       </c>
       <c r="B27" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -554,12 +898,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>42635.0</v>
+        <v>42635</v>
       </c>
       <c r="B28" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>13</v>
@@ -568,9 +912,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>42636.0</v>
+        <v>42636</v>
       </c>
       <c r="B29" s="1">
         <v>1.5</v>
@@ -582,9 +926,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>42638.0</v>
+        <v>42638</v>
       </c>
       <c r="B30" s="1">
         <v>1.5</v>
@@ -596,17 +940,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>42639.0</v>
+        <v>42639</v>
       </c>
       <c r="B32" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
@@ -615,9 +959,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>42641.0</v>
+        <v>42641</v>
       </c>
       <c r="B33" s="1">
         <v>0.25</v>
@@ -629,12 +973,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>42641.0</v>
+        <v>42641</v>
       </c>
       <c r="B34" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>5</v>
@@ -643,12 +987,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>42641.0</v>
+        <v>42641</v>
       </c>
       <c r="B35" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>42</v>
@@ -657,7 +1001,21 @@
         <v>43</v>
       </c>
     </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>42642</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Deliverables/TimeLog.xlsx
+++ b/Deliverables/TimeLog.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Getting sword to follow model animations</t>
+  </si>
+  <si>
+    <t>Working on attack animation and relevant scripts</t>
   </si>
 </sst>
 </file>
@@ -544,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1003,7 +1006,7 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>42642</v>
+        <v>42643</v>
       </c>
       <c r="B36" s="1">
         <v>0.25</v>
@@ -1013,6 +1016,34 @@
       </c>
       <c r="D36" s="1" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>42643</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>42643</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Deliverables/TimeLog.xlsx
+++ b/Deliverables/TimeLog.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Working on attack animation and relevant scripts</t>
+  </si>
+  <si>
+    <t>Being a customer/working with customer</t>
   </si>
 </sst>
 </file>
@@ -547,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1046,6 +1049,20 @@
         <v>45</v>
       </c>
     </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>42643</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
